--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-926757.6268477105</v>
+        <v>-929431.1827368449</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>347.7019594497787</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>351.0397626197094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9408310226502</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.803427249607</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31348951888495</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>250.9967003884377</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0343782699241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.8312101021039</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.61014401023337</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.31749152360084</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.9183772485996</v>
       </c>
       <c r="T13" t="n">
-        <v>57.86703699215226</v>
+        <v>219.5855665954515</v>
       </c>
       <c r="U13" t="n">
         <v>286.2123056607526</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>136.5334740428359</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1661,7 +1661,7 @@
         <v>204.0016038932791</v>
       </c>
       <c r="U14" t="n">
-        <v>194.6444105561401</v>
+        <v>190.1862016486781</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.4543554839521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>48.50810575882058</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.034378269924</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.8312101021039</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>189.9183772485996</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5855665954514</v>
+        <v>219.5855665954515</v>
       </c>
       <c r="U16" t="n">
         <v>286.2123056607526</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.26036791993168</v>
+        <v>13.81681302133689</v>
       </c>
       <c r="T17" t="n">
         <v>156.6388464244632</v>
@@ -1901,7 +1901,7 @@
         <v>203.6339429196219</v>
       </c>
       <c r="V17" t="n">
-        <v>231.9459461027245</v>
+        <v>280.389501001319</v>
       </c>
       <c r="W17" t="n">
         <v>301.8782112485972</v>
@@ -2096,7 +2096,7 @@
         <v>363.5780735538344</v>
       </c>
       <c r="H20" t="n">
-        <v>247.4406697807911</v>
+        <v>198.9971148821966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.26036791993162</v>
+        <v>62.26036791993168</v>
       </c>
       <c r="T20" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U20" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V20" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W20" t="n">
-        <v>253.4346563500032</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X20" t="n">
         <v>322.3683432096532</v>
@@ -2178,7 +2178,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I21" t="n">
-        <v>9.043422624585361</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C22" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D22" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E22" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775331</v>
       </c>
       <c r="F22" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411539</v>
       </c>
       <c r="G22" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H22" t="n">
-        <v>97.46845263328802</v>
+        <v>97.46845263328805</v>
       </c>
       <c r="I22" t="n">
-        <v>49.24738654141747</v>
+        <v>49.24738654141751</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478498</v>
       </c>
       <c r="S22" t="n">
         <v>142.5556197797837</v>
@@ -2293,7 +2293,7 @@
         <v>172.2228091266356</v>
       </c>
       <c r="U22" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V22" t="n">
         <v>204.7748858550121</v>
@@ -2318,7 +2318,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C23" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D23" t="n">
         <v>307.3202841518671</v>
@@ -2330,10 +2330,10 @@
         <v>359.5132882728956</v>
       </c>
       <c r="G23" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H23" t="n">
-        <v>247.4406697807911</v>
+        <v>247.4406697807912</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.26036791993165</v>
+        <v>62.26036791993168</v>
       </c>
       <c r="T23" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U23" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V23" t="n">
         <v>280.389501001319</v>
@@ -2476,25 +2476,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C25" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D25" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E25" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775331</v>
       </c>
       <c r="F25" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411539</v>
       </c>
       <c r="G25" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H25" t="n">
-        <v>97.46845263328802</v>
+        <v>97.46845263328805</v>
       </c>
       <c r="I25" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141751</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95473405478495</v>
+        <v>41.95473405478498</v>
       </c>
       <c r="S25" t="n">
         <v>142.5556197797837</v>
@@ -2530,7 +2530,7 @@
         <v>172.2228091266356</v>
       </c>
       <c r="U25" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V25" t="n">
         <v>204.7748858550121</v>
@@ -2555,7 +2555,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C26" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D26" t="n">
         <v>307.3202841518671</v>
@@ -2570,7 +2570,7 @@
         <v>363.5780735538344</v>
       </c>
       <c r="H26" t="n">
-        <v>247.4406697807911</v>
+        <v>247.4406697807912</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.26036791993165</v>
+        <v>62.26036791993168</v>
       </c>
       <c r="T26" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U26" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V26" t="n">
         <v>280.389501001319</v>
@@ -2713,25 +2713,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D28" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E28" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775331</v>
       </c>
       <c r="F28" t="n">
-        <v>98.05829055411502</v>
+        <v>98.05829055411539</v>
       </c>
       <c r="G28" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H28" t="n">
-        <v>97.46845263328802</v>
+        <v>97.46845263328805</v>
       </c>
       <c r="I28" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141751</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95473405478495</v>
+        <v>41.95473405478498</v>
       </c>
       <c r="S28" t="n">
         <v>142.5556197797837</v>
@@ -2767,7 +2767,7 @@
         <v>172.2228091266356</v>
       </c>
       <c r="U28" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V28" t="n">
         <v>204.7748858550121</v>
@@ -2807,7 +2807,7 @@
         <v>363.5780735538344</v>
       </c>
       <c r="H29" t="n">
-        <v>247.4406697807911</v>
+        <v>247.4406697807912</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.26036791993165</v>
+        <v>62.26036791993168</v>
       </c>
       <c r="T29" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U29" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V29" t="n">
         <v>280.389501001319</v>
@@ -2950,25 +2950,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D31" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E31" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775331</v>
       </c>
       <c r="F31" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411539</v>
       </c>
       <c r="G31" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H31" t="n">
-        <v>97.46845263328758</v>
+        <v>97.46845263328804</v>
       </c>
       <c r="I31" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141751</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95473405478495</v>
+        <v>41.95473405478498</v>
       </c>
       <c r="S31" t="n">
         <v>142.5556197797837</v>
@@ -3004,7 +3004,7 @@
         <v>172.2228091266356</v>
       </c>
       <c r="U31" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V31" t="n">
         <v>204.7748858550121</v>
@@ -3029,22 +3029,22 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C32" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D32" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E32" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F32" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G32" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H32" t="n">
-        <v>247.4406697807911</v>
+        <v>247.4406697807912</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.26036791993165</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T32" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U32" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V32" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W32" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X32" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y32" t="n">
         <v>338.8751811872377</v>
@@ -3187,25 +3187,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C34" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D34" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E34" t="n">
-        <v>99.07120517775327</v>
+        <v>99.0712051777533</v>
       </c>
       <c r="F34" t="n">
-        <v>98.05829055411535</v>
+        <v>98.05829055411537</v>
       </c>
       <c r="G34" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H34" t="n">
-        <v>97.46845263328801</v>
+        <v>97.46845263328804</v>
       </c>
       <c r="I34" t="n">
-        <v>49.24738654141746</v>
+        <v>49.2473865414175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95473405478492</v>
+        <v>41.95473405478496</v>
       </c>
       <c r="S34" t="n">
         <v>142.5556197797837</v>
@@ -3241,7 +3241,7 @@
         <v>172.2228091266356</v>
       </c>
       <c r="U34" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V34" t="n">
         <v>204.7748858550121</v>
@@ -3250,7 +3250,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X34" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y34" t="n">
         <v>171.2218958832789</v>
@@ -3266,7 +3266,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C35" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D35" t="n">
         <v>307.3202841518671</v>
@@ -3278,7 +3278,7 @@
         <v>359.5132882728956</v>
       </c>
       <c r="G35" t="n">
-        <v>363.5780735538344</v>
+        <v>363.5780735538343</v>
       </c>
       <c r="H35" t="n">
         <v>247.4406697807911</v>
@@ -3503,22 +3503,22 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C38" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D38" t="n">
-        <v>307.3202841518671</v>
+        <v>307.320284151867</v>
       </c>
       <c r="E38" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F38" t="n">
-        <v>359.5132882728956</v>
+        <v>359.5132882728955</v>
       </c>
       <c r="G38" t="n">
-        <v>363.5780735538344</v>
+        <v>363.5780735538343</v>
       </c>
       <c r="H38" t="n">
-        <v>247.4406697807912</v>
+        <v>247.4406697807911</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.26036791993165</v>
+        <v>62.26036791993164</v>
       </c>
       <c r="T38" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U38" t="n">
-        <v>203.6339429196219</v>
+        <v>203.6339429196218</v>
       </c>
       <c r="V38" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W38" t="n">
-        <v>301.8782112485972</v>
+        <v>301.8782112485971</v>
       </c>
       <c r="X38" t="n">
-        <v>322.3683432096532</v>
+        <v>322.3683432096531</v>
       </c>
       <c r="Y38" t="n">
         <v>338.8751811872377</v>
@@ -3661,25 +3661,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C40" t="n">
-        <v>119.884063629812</v>
+        <v>119.8840636298119</v>
       </c>
       <c r="D40" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E40" t="n">
-        <v>99.0712051777533</v>
+        <v>99.07120517775327</v>
       </c>
       <c r="F40" t="n">
-        <v>98.05829055411537</v>
+        <v>98.05829055411535</v>
       </c>
       <c r="G40" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H40" t="n">
-        <v>97.46845263328804</v>
+        <v>97.46845263328801</v>
       </c>
       <c r="I40" t="n">
-        <v>49.24738654141749</v>
+        <v>49.24738654141746</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95473405478498</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S40" t="n">
         <v>142.5556197797837</v>
@@ -3715,7 +3715,7 @@
         <v>172.2228091266356</v>
       </c>
       <c r="U40" t="n">
-        <v>238.8495481919368</v>
+        <v>238.8495481919367</v>
       </c>
       <c r="V40" t="n">
         <v>204.7748858550121</v>
@@ -3724,7 +3724,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X40" t="n">
-        <v>178.3468979202213</v>
+        <v>178.3468979202212</v>
       </c>
       <c r="Y40" t="n">
         <v>171.2218958832789</v>
@@ -3743,13 +3743,13 @@
         <v>317.9101343021916</v>
       </c>
       <c r="D41" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E41" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F41" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G41" t="n">
         <v>363.5780735538343</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.26036791993162</v>
+        <v>62.26036791993165</v>
       </c>
       <c r="T41" t="n">
         <v>156.6388464244632</v>
@@ -3800,10 +3800,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W41" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X41" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y41" t="n">
         <v>338.8751811872377</v>
@@ -3901,22 +3901,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D43" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E43" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F43" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G43" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H43" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I43" t="n">
-        <v>49.24738654141745</v>
+        <v>49.24738654141748</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95473405478492</v>
+        <v>41.95473405478495</v>
       </c>
       <c r="S43" t="n">
         <v>142.5556197797837</v>
@@ -3961,7 +3961,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X43" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y43" t="n">
         <v>171.2218958832789</v>
@@ -3977,19 +3977,19 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C44" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D44" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E44" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F44" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G44" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H44" t="n">
         <v>247.4406697807911</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.26036791993165</v>
+        <v>62.26036791993166</v>
       </c>
       <c r="T44" t="n">
         <v>156.6388464244632</v>
@@ -4037,10 +4037,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W44" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X44" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y44" t="n">
         <v>338.8751811872377</v>
@@ -4153,7 +4153,7 @@
         <v>97.46845263328802</v>
       </c>
       <c r="I46" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478496</v>
       </c>
       <c r="S46" t="n">
         <v>142.5556197797837</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1991.480939177785</v>
+        <v>2285.173149815658</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.518422237373</v>
+        <v>1933.959049361336</v>
       </c>
       <c r="D11" t="n">
-        <v>1264.252723630622</v>
+        <v>1575.693350754585</v>
       </c>
       <c r="E11" t="n">
-        <v>878.4644710323777</v>
+        <v>1189.905098156341</v>
       </c>
       <c r="F11" t="n">
-        <v>523.8788522245903</v>
+        <v>778.9191933667337</v>
       </c>
       <c r="G11" t="n">
-        <v>108.7871037168628</v>
+        <v>363.8274448590063</v>
       </c>
       <c r="H11" t="n">
-        <v>108.7871037168628</v>
+        <v>66.04620521293862</v>
       </c>
       <c r="I11" t="n">
         <v>66.04620521293862</v>
       </c>
       <c r="J11" t="n">
-        <v>253.3200072863874</v>
+        <v>253.3200072863865</v>
       </c>
       <c r="K11" t="n">
-        <v>584.733409115338</v>
+        <v>584.7334091153373</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.782801519721</v>
+        <v>1032.78280151972</v>
       </c>
       <c r="M11" t="n">
-        <v>1562.99351788926</v>
+        <v>1562.993517889259</v>
       </c>
       <c r="N11" t="n">
         <v>2106.397406346729</v>
@@ -5057,7 +5057,7 @@
         <v>2606.183027849554</v>
       </c>
       <c r="P11" t="n">
-        <v>2998.237491994245</v>
+        <v>2998.237491994246</v>
       </c>
       <c r="Q11" t="n">
         <v>3244.481320461458</v>
@@ -5075,16 +5075,16 @@
         <v>3048.778240052549</v>
       </c>
       <c r="V11" t="n">
-        <v>2717.715352708979</v>
+        <v>3048.778240052549</v>
       </c>
       <c r="W11" t="n">
-        <v>2364.946697438864</v>
+        <v>3048.778240052549</v>
       </c>
       <c r="X11" t="n">
-        <v>1991.480939177785</v>
+        <v>2675.31248179147</v>
       </c>
       <c r="Y11" t="n">
-        <v>1991.480939177785</v>
+        <v>2285.173149815658</v>
       </c>
     </row>
     <row r="12">
@@ -5118,10 +5118,10 @@
         <v>66.04620521293862</v>
       </c>
       <c r="J12" t="n">
-        <v>158.7673518169102</v>
+        <v>164.7106093786434</v>
       </c>
       <c r="K12" t="n">
-        <v>395.397384494967</v>
+        <v>401.3406420567002</v>
       </c>
       <c r="L12" t="n">
         <v>765.8414641072887</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.6069749251822</v>
+        <v>628.9791832222087</v>
       </c>
       <c r="C13" t="n">
-        <v>381.6707919972753</v>
+        <v>460.0430002943019</v>
       </c>
       <c r="D13" t="n">
-        <v>381.6707919972753</v>
+        <v>309.9263608819662</v>
       </c>
       <c r="E13" t="n">
-        <v>233.7576984148821</v>
+        <v>309.9263608819662</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7576984148821</v>
+        <v>309.9263608819662</v>
       </c>
       <c r="G13" t="n">
-        <v>66.04620521293862</v>
+        <v>309.9263608819662</v>
       </c>
       <c r="H13" t="n">
-        <v>66.04620521293862</v>
+        <v>163.6322092636794</v>
       </c>
       <c r="I13" t="n">
         <v>66.04620521293862</v>
@@ -5221,28 +5221,28 @@
         <v>1918.417599675513</v>
       </c>
       <c r="R13" t="n">
-        <v>1828.197911267836</v>
+        <v>1918.417599675513</v>
       </c>
       <c r="S13" t="n">
-        <v>1636.361166572281</v>
+        <v>1726.580854979958</v>
       </c>
       <c r="T13" t="n">
-        <v>1577.909614054955</v>
+        <v>1504.77725235829</v>
       </c>
       <c r="U13" t="n">
-        <v>1288.80627500369</v>
+        <v>1215.673913307025</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.80627500369</v>
+        <v>1215.673913307025</v>
       </c>
       <c r="W13" t="n">
-        <v>999.3891049667296</v>
+        <v>1077.761313263756</v>
       </c>
       <c r="X13" t="n">
-        <v>771.3995540687123</v>
+        <v>849.7717623657388</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.6069749251822</v>
+        <v>628.9791832222087</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2359.667836295926</v>
+        <v>1990.705319355515</v>
       </c>
       <c r="C14" t="n">
         <v>1990.705319355515</v>
@@ -5261,13 +5261,13 @@
         <v>1632.439620748765</v>
       </c>
       <c r="E14" t="n">
-        <v>1246.65136815052</v>
+        <v>1246.651368150521</v>
       </c>
       <c r="F14" t="n">
-        <v>835.6654633609128</v>
+        <v>835.6654633609132</v>
       </c>
       <c r="G14" t="n">
-        <v>420.5737148531853</v>
+        <v>420.5737148531855</v>
       </c>
       <c r="H14" t="n">
         <v>122.7924752071178</v>
@@ -5294,34 +5294,34 @@
         <v>2787.594048360162</v>
       </c>
       <c r="P14" t="n">
-        <v>3423.254970079436</v>
+        <v>3423.254970079435</v>
       </c>
       <c r="Q14" t="n">
         <v>3879.690639299953</v>
       </c>
       <c r="R14" t="n">
-        <v>4002.578835159679</v>
+        <v>4002.578835159678</v>
       </c>
       <c r="S14" t="n">
         <v>3891.848405474075</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.786179319248</v>
+        <v>3685.786179319247</v>
       </c>
       <c r="U14" t="n">
-        <v>3489.175663605974</v>
+        <v>3493.678904926643</v>
       </c>
       <c r="V14" t="n">
-        <v>3489.175663605974</v>
+        <v>3493.678904926643</v>
       </c>
       <c r="W14" t="n">
-        <v>3136.40700833586</v>
+        <v>3140.910249656529</v>
       </c>
       <c r="X14" t="n">
-        <v>3136.40700833586</v>
+        <v>2767.444491395449</v>
       </c>
       <c r="Y14" t="n">
-        <v>2746.267676360048</v>
+        <v>2377.305159419637</v>
       </c>
     </row>
     <row r="15">
@@ -5376,7 +5376,7 @@
         <v>2406.627267561092</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.977009577362</v>
+        <v>2568.920267139094</v>
       </c>
       <c r="R15" t="n">
         <v>2568.920267139094</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>857.796445531634</v>
+        <v>275.9396108261749</v>
       </c>
       <c r="C16" t="n">
-        <v>688.8602626037272</v>
+        <v>275.9396108261749</v>
       </c>
       <c r="D16" t="n">
-        <v>688.8602626037272</v>
+        <v>226.9415242011039</v>
       </c>
       <c r="E16" t="n">
-        <v>540.947169021334</v>
+        <v>226.9415242011039</v>
       </c>
       <c r="F16" t="n">
-        <v>394.0572215234238</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="G16" t="n">
-        <v>226.3457283214803</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="H16" t="n">
         <v>80.05157670319358</v>
@@ -5437,10 +5437,10 @@
         <v>124.5743683774958</v>
       </c>
       <c r="K16" t="n">
-        <v>327.5758286731312</v>
+        <v>327.5758286731314</v>
       </c>
       <c r="L16" t="n">
-        <v>642.8742414979104</v>
+        <v>642.8742414979106</v>
       </c>
       <c r="M16" t="n">
         <v>985.7013328165647</v>
@@ -5449,16 +5449,16 @@
         <v>1325.81137858174</v>
       </c>
       <c r="O16" t="n">
-        <v>1623.941758737476</v>
+        <v>1623.941758737475</v>
       </c>
       <c r="P16" t="n">
         <v>1855.523120346509</v>
       </c>
       <c r="Q16" t="n">
-        <v>1932.422971165769</v>
+        <v>1932.422971165768</v>
       </c>
       <c r="R16" t="n">
-        <v>1932.422971165769</v>
+        <v>1932.422971165768</v>
       </c>
       <c r="S16" t="n">
         <v>1740.586226470213</v>
@@ -5467,19 +5467,19 @@
         <v>1518.782623848545</v>
       </c>
       <c r="U16" t="n">
-        <v>1229.67928479728</v>
+        <v>1229.679284797279</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.67928479728</v>
+        <v>974.9947965913925</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.67928479728</v>
+        <v>685.577626554432</v>
       </c>
       <c r="X16" t="n">
-        <v>1001.689733899262</v>
+        <v>457.5880756564146</v>
       </c>
       <c r="Y16" t="n">
-        <v>1001.689733899262</v>
+        <v>457.5880756564146</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1708.758575049491</v>
       </c>
       <c r="D17" t="n">
-        <v>1398.33404560316</v>
+        <v>1398.334045603161</v>
       </c>
       <c r="E17" t="n">
         <v>1060.386962165336</v>
       </c>
       <c r="F17" t="n">
-        <v>697.2422265361487</v>
+        <v>697.2422265361489</v>
       </c>
       <c r="G17" t="n">
         <v>329.9916471888413</v>
@@ -5516,37 +5516,37 @@
         <v>434.7310277969952</v>
       </c>
       <c r="K17" t="n">
-        <v>901.3620068640658</v>
+        <v>766.1444296259459</v>
       </c>
       <c r="L17" t="n">
-        <v>1349.411399268448</v>
+        <v>1214.193822030328</v>
       </c>
       <c r="M17" t="n">
-        <v>1879.622115637988</v>
+        <v>1744.404538399868</v>
       </c>
       <c r="N17" t="n">
-        <v>2423.026004095457</v>
+        <v>2287.808426857337</v>
       </c>
       <c r="O17" t="n">
-        <v>2922.811625598282</v>
+        <v>2787.594048360162</v>
       </c>
       <c r="P17" t="n">
-        <v>3633.446810832741</v>
+        <v>3423.254970079435</v>
       </c>
       <c r="Q17" t="n">
         <v>3879.690639299953</v>
       </c>
       <c r="R17" t="n">
-        <v>4002.578835159679</v>
+        <v>4002.578835159678</v>
       </c>
       <c r="S17" t="n">
-        <v>3939.689574634496</v>
+        <v>3988.622458370449</v>
       </c>
       <c r="T17" t="n">
-        <v>3781.468517640089</v>
+        <v>3830.401401376042</v>
       </c>
       <c r="U17" t="n">
-        <v>3575.777666206127</v>
+        <v>3624.71054994208</v>
       </c>
       <c r="V17" t="n">
         <v>3341.48883175893</v>
@@ -5613,7 +5613,7 @@
         <v>2406.627267561092</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.977009577362</v>
+        <v>2568.920267139094</v>
       </c>
       <c r="R18" t="n">
         <v>2568.920267139094</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2029.879922829482</v>
+        <v>1980.947039093528</v>
       </c>
       <c r="C20" t="n">
-        <v>1708.758575049491</v>
+        <v>1659.825691313537</v>
       </c>
       <c r="D20" t="n">
-        <v>1398.33404560316</v>
+        <v>1349.401161867207</v>
       </c>
       <c r="E20" t="n">
-        <v>1060.386962165336</v>
+        <v>1011.454078429382</v>
       </c>
       <c r="F20" t="n">
-        <v>697.2422265361487</v>
+        <v>648.3093428001949</v>
       </c>
       <c r="G20" t="n">
-        <v>329.9916471888412</v>
+        <v>281.0587634528871</v>
       </c>
       <c r="H20" t="n">
         <v>80.05157670319358</v>
@@ -5750,16 +5750,16 @@
         <v>80.05157670319358</v>
       </c>
       <c r="J20" t="n">
-        <v>424.8160199560617</v>
+        <v>424.8160199560616</v>
       </c>
       <c r="K20" t="n">
-        <v>756.2294217850125</v>
+        <v>756.2294217850123</v>
       </c>
       <c r="L20" t="n">
         <v>1204.278814189395</v>
       </c>
       <c r="M20" t="n">
-        <v>1734.489530558935</v>
+        <v>1734.489530558934</v>
       </c>
       <c r="N20" t="n">
         <v>2277.893419016404</v>
@@ -5771,10 +5771,10 @@
         <v>3488.314225753688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3944.749894974206</v>
+        <v>3944.749894974205</v>
       </c>
       <c r="R20" t="n">
-        <v>4002.578835159679</v>
+        <v>4002.578835159678</v>
       </c>
       <c r="S20" t="n">
         <v>3939.689574634495</v>
@@ -5783,19 +5783,19 @@
         <v>3781.468517640088</v>
       </c>
       <c r="U20" t="n">
-        <v>3575.777666206127</v>
+        <v>3575.777666206126</v>
       </c>
       <c r="V20" t="n">
         <v>3292.555948022976</v>
       </c>
       <c r="W20" t="n">
-        <v>3036.561345649236</v>
+        <v>2987.628461913282</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.936756548576</v>
+        <v>2662.003872812622</v>
       </c>
       <c r="Y20" t="n">
-        <v>2368.638593733184</v>
+        <v>2319.70570999723</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>179.787964265442</v>
       </c>
       <c r="H21" t="n">
-        <v>89.18634703105758</v>
+        <v>89.18634703105759</v>
       </c>
       <c r="I21" t="n">
         <v>80.05157670319358</v>
@@ -5832,10 +5832,10 @@
         <v>172.7727233071652</v>
       </c>
       <c r="K21" t="n">
-        <v>409.4027559852221</v>
+        <v>409.402755985222</v>
       </c>
       <c r="L21" t="n">
-        <v>773.9035780358108</v>
+        <v>773.9035780358106</v>
       </c>
       <c r="M21" t="n">
         <v>1218.615713148033</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>770.6109048717699</v>
+        <v>770.6109048717703</v>
       </c>
       <c r="C22" t="n">
-        <v>649.515891104283</v>
+        <v>649.5158911042835</v>
       </c>
       <c r="D22" t="n">
-        <v>547.2404208523674</v>
+        <v>547.2404208523678</v>
       </c>
       <c r="E22" t="n">
-        <v>447.1684964303944</v>
+        <v>447.1684964303947</v>
       </c>
       <c r="F22" t="n">
-        <v>348.1197180929041</v>
+        <v>348.1197180929045</v>
       </c>
       <c r="G22" t="n">
-        <v>228.2493940513807</v>
+        <v>228.249394051381</v>
       </c>
       <c r="H22" t="n">
         <v>129.7964115935143</v>
@@ -5908,19 +5908,19 @@
         <v>80.05157670319358</v>
       </c>
       <c r="J22" t="n">
-        <v>171.4634982716235</v>
+        <v>171.4634982716238</v>
       </c>
       <c r="K22" t="n">
-        <v>421.3540884613867</v>
+        <v>421.354088461387</v>
       </c>
       <c r="L22" t="n">
-        <v>783.5416311802936</v>
+        <v>783.541631180294</v>
       </c>
       <c r="M22" t="n">
         <v>1173.257852393076</v>
       </c>
       <c r="N22" t="n">
-        <v>1560.257028052379</v>
+        <v>1560.25702805238</v>
       </c>
       <c r="O22" t="n">
         <v>1905.276538102242</v>
@@ -5941,7 +5941,7 @@
         <v>1947.19948207515</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.937312184304</v>
+        <v>1705.937312184305</v>
       </c>
       <c r="V22" t="n">
         <v>1499.093993138838</v>
@@ -5953,7 +5953,7 @@
         <v>1077.3696105247</v>
       </c>
       <c r="Y22" t="n">
-        <v>904.4182005415895</v>
+        <v>904.41820054159</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.757205329816</v>
+        <v>1709.757205329817</v>
       </c>
       <c r="D23" t="n">
         <v>1399.332675883486</v>
@@ -5990,22 +5990,22 @@
         <v>435.7296580773208</v>
       </c>
       <c r="K23" t="n">
-        <v>1059.682401216807</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L23" t="n">
-        <v>1507.731793621189</v>
+        <v>1215.192452310654</v>
       </c>
       <c r="M23" t="n">
-        <v>2037.942509990729</v>
+        <v>2190.421566838098</v>
       </c>
       <c r="N23" t="n">
-        <v>2581.346398448198</v>
+        <v>2733.825455295567</v>
       </c>
       <c r="O23" t="n">
-        <v>3081.132019951023</v>
+        <v>3233.611076798392</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.186484095715</v>
+        <v>3625.665540943083</v>
       </c>
       <c r="Q23" t="n">
         <v>3929.622153316232</v>
@@ -6014,25 +6014,25 @@
         <v>4052.510349175958</v>
       </c>
       <c r="S23" t="n">
-        <v>3989.621088650774</v>
+        <v>3989.621088650775</v>
       </c>
       <c r="T23" t="n">
         <v>3831.400031656367</v>
       </c>
       <c r="U23" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V23" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W23" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X23" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y23" t="n">
-        <v>2369.637224013509</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>2099.058792240565</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.625897841417</v>
+        <v>2413.56915540315</v>
       </c>
       <c r="Q24" t="n">
-        <v>2563.975639857687</v>
+        <v>2569.91889741942</v>
       </c>
       <c r="R24" t="n">
         <v>2569.91889741942</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.6095351520958</v>
+        <v>771.6095351520953</v>
       </c>
       <c r="C25" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846084</v>
       </c>
       <c r="D25" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326928</v>
       </c>
       <c r="E25" t="n">
-        <v>448.1671267107203</v>
+        <v>448.1671267107197</v>
       </c>
       <c r="F25" t="n">
-        <v>349.11834837323</v>
+        <v>349.1183483732294</v>
       </c>
       <c r="G25" t="n">
-        <v>229.2480243317066</v>
+        <v>229.2480243317059</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738392</v>
       </c>
       <c r="I25" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J25" t="n">
-        <v>172.4621285519491</v>
+        <v>172.462128551949</v>
       </c>
       <c r="K25" t="n">
-        <v>422.3527187417122</v>
+        <v>422.3527187417124</v>
       </c>
       <c r="L25" t="n">
-        <v>784.5402614606191</v>
+        <v>784.5402614606194</v>
       </c>
       <c r="M25" t="n">
         <v>1174.256482673401</v>
@@ -6184,13 +6184,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W25" t="n">
-        <v>1258.516622542623</v>
+        <v>1258.516622542622</v>
       </c>
       <c r="X25" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.4168308219154</v>
+        <v>905.4168308219149</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C26" t="n">
         <v>1709.757205329816</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.332675883485</v>
+        <v>1399.332675883486</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.385592445661</v>
+        <v>1061.385592445662</v>
       </c>
       <c r="F26" t="n">
-        <v>698.2408568164738</v>
+        <v>698.2408568164742</v>
       </c>
       <c r="G26" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H26" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J26" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K26" t="n">
-        <v>599.7374108859185</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L26" t="n">
-        <v>1047.786803290301</v>
+        <v>1215.192452310654</v>
       </c>
       <c r="M26" t="n">
-        <v>1577.997519659841</v>
+        <v>1745.403168680194</v>
       </c>
       <c r="N26" t="n">
-        <v>2121.40140811731</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O26" t="n">
-        <v>2998.179209070253</v>
+        <v>2788.592678640488</v>
       </c>
       <c r="P26" t="n">
-        <v>3708.814394304712</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q26" t="n">
-        <v>3994.681408990484</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R26" t="n">
-        <v>4052.510349175957</v>
+        <v>4052.510349175958</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.621088650774</v>
+        <v>3989.621088650775</v>
       </c>
       <c r="T26" t="n">
         <v>3831.400031656367</v>
       </c>
       <c r="U26" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V26" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W26" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X26" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y26" t="n">
-        <v>2369.637224013509</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H27" t="n">
-        <v>90.18497731138316</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I27" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J27" t="n">
         <v>173.7713535874908</v>
@@ -6318,13 +6318,13 @@
         <v>1690.505330390491</v>
       </c>
       <c r="O27" t="n">
-        <v>2099.058792240565</v>
+        <v>2105.002049802299</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.625897841417</v>
+        <v>2413.56915540315</v>
       </c>
       <c r="Q27" t="n">
-        <v>2563.975639857687</v>
+        <v>2569.91889741942</v>
       </c>
       <c r="R27" t="n">
         <v>2569.91889741942</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.6095351520953</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C28" t="n">
-        <v>650.5145213846084</v>
+        <v>650.5145213846087</v>
       </c>
       <c r="D28" t="n">
-        <v>548.2390511326928</v>
+        <v>548.239051132693</v>
       </c>
       <c r="E28" t="n">
-        <v>448.1671267107198</v>
+        <v>448.1671267107199</v>
       </c>
       <c r="F28" t="n">
-        <v>349.1183483732299</v>
+        <v>349.1183483732296</v>
       </c>
       <c r="G28" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317061</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738394</v>
       </c>
       <c r="I28" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J28" t="n">
         <v>172.462128551949</v>
       </c>
       <c r="K28" t="n">
-        <v>422.3527187417122</v>
+        <v>422.3527187417125</v>
       </c>
       <c r="L28" t="n">
-        <v>784.5402614606191</v>
+        <v>784.5402614606194</v>
       </c>
       <c r="M28" t="n">
         <v>1174.256482673401</v>
@@ -6397,7 +6397,7 @@
         <v>1561.255658332705</v>
       </c>
       <c r="O28" t="n">
-        <v>1906.275168382568</v>
+        <v>1906.275168382567</v>
       </c>
       <c r="P28" t="n">
         <v>2184.745659885729</v>
@@ -6421,13 +6421,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.516622542623</v>
+        <v>1258.516622542622</v>
       </c>
       <c r="X28" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.4168308219149</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C29" t="n">
-        <v>1709.757205329816</v>
+        <v>1709.757205329817</v>
       </c>
       <c r="D29" t="n">
         <v>1399.332675883486</v>
@@ -6449,7 +6449,7 @@
         <v>1061.385592445662</v>
       </c>
       <c r="F29" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164747</v>
       </c>
       <c r="G29" t="n">
         <v>330.9902774691668</v>
@@ -6464,49 +6464,49 @@
         <v>435.7296580773208</v>
       </c>
       <c r="K29" t="n">
-        <v>1088.047018351725</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L29" t="n">
-        <v>1536.096410756107</v>
+        <v>1507.73179362119</v>
       </c>
       <c r="M29" t="n">
-        <v>2066.307127125647</v>
+        <v>2037.942509990729</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.711015583116</v>
+        <v>2581.346398448199</v>
       </c>
       <c r="O29" t="n">
-        <v>3109.496637085941</v>
+        <v>3081.132019951024</v>
       </c>
       <c r="P29" t="n">
-        <v>3538.245739769968</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q29" t="n">
-        <v>3994.681408990485</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R29" t="n">
         <v>4052.510349175958</v>
       </c>
       <c r="S29" t="n">
-        <v>3989.621088650774</v>
+        <v>3989.621088650775</v>
       </c>
       <c r="T29" t="n">
         <v>3831.400031656367</v>
       </c>
       <c r="U29" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V29" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W29" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X29" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y29" t="n">
-        <v>2369.637224013509</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="30">
@@ -6546,10 +6546,10 @@
         <v>410.4013862655476</v>
       </c>
       <c r="L30" t="n">
-        <v>780.8454658778693</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M30" t="n">
-        <v>1225.557600990092</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N30" t="n">
         <v>1696.448587952224</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.6095351520953</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C31" t="n">
-        <v>650.5145213846084</v>
+        <v>650.5145213846087</v>
       </c>
       <c r="D31" t="n">
-        <v>548.2390511326928</v>
+        <v>548.239051132693</v>
       </c>
       <c r="E31" t="n">
-        <v>448.1671267107198</v>
+        <v>448.16712671072</v>
       </c>
       <c r="F31" t="n">
-        <v>349.1183483732295</v>
+        <v>349.1183483732297</v>
       </c>
       <c r="G31" t="n">
-        <v>229.2480243317061</v>
+        <v>229.2480243317062</v>
       </c>
       <c r="H31" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738395</v>
       </c>
       <c r="I31" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.4621285519491</v>
+        <v>172.4621285519488</v>
       </c>
       <c r="K31" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417119</v>
       </c>
       <c r="L31" t="n">
-        <v>784.540261460619</v>
+        <v>784.5402614606187</v>
       </c>
       <c r="M31" t="n">
         <v>1174.256482673401</v>
@@ -6637,10 +6637,10 @@
         <v>1906.275168382567</v>
       </c>
       <c r="P31" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q31" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599116</v>
       </c>
       <c r="R31" t="n">
         <v>2266.156121351858</v>
@@ -6664,7 +6664,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y31" t="n">
-        <v>905.4168308219149</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2030.878553109809</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C32" t="n">
         <v>1709.757205329817</v>
       </c>
       <c r="D32" t="n">
-        <v>1399.332675883487</v>
+        <v>1399.332675883486</v>
       </c>
       <c r="E32" t="n">
         <v>1061.385592445662</v>
       </c>
       <c r="F32" t="n">
-        <v>698.2408568164751</v>
+        <v>698.2408568164745</v>
       </c>
       <c r="G32" t="n">
         <v>330.9902774691668</v>
@@ -6710,13 +6710,13 @@
         <v>1745.403168680194</v>
       </c>
       <c r="N32" t="n">
-        <v>2721.780512305527</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O32" t="n">
-        <v>3221.566133808352</v>
+        <v>2788.592678640488</v>
       </c>
       <c r="P32" t="n">
-        <v>3613.620597953044</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q32" t="n">
         <v>3929.622153316232</v>
@@ -6734,13 +6734,13 @@
         <v>3625.709180222406</v>
       </c>
       <c r="V32" t="n">
-        <v>3342.487462039256</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W32" t="n">
         <v>3037.559975929561</v>
       </c>
       <c r="X32" t="n">
-        <v>2711.935386828902</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y32" t="n">
         <v>2369.63722401351</v>
@@ -6783,10 +6783,10 @@
         <v>410.4013862655476</v>
       </c>
       <c r="L33" t="n">
-        <v>780.8454658778693</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M33" t="n">
-        <v>1225.557600990092</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N33" t="n">
         <v>1696.448587952224</v>
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.6095351520956</v>
+        <v>771.6095351520954</v>
       </c>
       <c r="C34" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846085</v>
       </c>
       <c r="D34" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326929</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1671267107202</v>
+        <v>448.1671267107199</v>
       </c>
       <c r="F34" t="n">
-        <v>349.1183483732299</v>
+        <v>349.1183483732297</v>
       </c>
       <c r="G34" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317062</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738395</v>
       </c>
       <c r="I34" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.4621285519494</v>
+        <v>172.462128551949</v>
       </c>
       <c r="K34" t="n">
-        <v>422.3527187417124</v>
+        <v>422.3527187417122</v>
       </c>
       <c r="L34" t="n">
-        <v>784.5402614606194</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M34" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N34" t="n">
-        <v>1561.255658332705</v>
+        <v>1561.255658332704</v>
       </c>
       <c r="O34" t="n">
-        <v>1906.275168382568</v>
+        <v>1906.275168382567</v>
       </c>
       <c r="P34" t="n">
-        <v>2184.745659885729</v>
+        <v>2184.745659885728</v>
       </c>
       <c r="Q34" t="n">
-        <v>2308.534640599116</v>
+        <v>2308.534640599115</v>
       </c>
       <c r="R34" t="n">
-        <v>2266.156121351859</v>
+        <v>2266.156121351858</v>
       </c>
       <c r="S34" t="n">
-        <v>2122.160545816724</v>
+        <v>2122.160545816723</v>
       </c>
       <c r="T34" t="n">
-        <v>1948.198112355476</v>
+        <v>1948.198112355475</v>
       </c>
       <c r="U34" t="n">
         <v>1706.93594246463</v>
@@ -6895,13 +6895,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W34" t="n">
-        <v>1258.516622542623</v>
+        <v>1258.516622542622</v>
       </c>
       <c r="X34" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.4168308219153</v>
+        <v>905.416830821915</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>435.7296580773208</v>
       </c>
       <c r="K35" t="n">
-        <v>767.1430599062714</v>
+        <v>1059.682401216807</v>
       </c>
       <c r="L35" t="n">
-        <v>1215.192452310654</v>
+        <v>1507.731793621189</v>
       </c>
       <c r="M35" t="n">
-        <v>1745.403168680194</v>
+        <v>2037.942509990729</v>
       </c>
       <c r="N35" t="n">
-        <v>2288.807057137663</v>
+        <v>2581.346398448198</v>
       </c>
       <c r="O35" t="n">
-        <v>2788.592678640488</v>
+        <v>3081.132019951023</v>
       </c>
       <c r="P35" t="n">
-        <v>3499.227863874947</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q35" t="n">
-        <v>3955.663533095464</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R35" t="n">
         <v>4052.510349175958</v>
@@ -7017,13 +7017,13 @@
         <v>173.7713535874908</v>
       </c>
       <c r="K36" t="n">
-        <v>410.4013862655476</v>
+        <v>416.3446438272807</v>
       </c>
       <c r="L36" t="n">
-        <v>774.9022083161361</v>
+        <v>780.8454658778693</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.614343428359</v>
+        <v>1225.557600990092</v>
       </c>
       <c r="N36" t="n">
         <v>1696.448587952224</v>
@@ -7093,25 +7093,25 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4621285519491</v>
+        <v>172.4621285519489</v>
       </c>
       <c r="K37" t="n">
-        <v>422.3527187417122</v>
+        <v>422.352718741712</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5402614606188</v>
+        <v>784.5402614606189</v>
       </c>
       <c r="M37" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O37" t="n">
-        <v>1906.275168382567</v>
+        <v>1906.275168382568</v>
       </c>
       <c r="P37" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q37" t="n">
         <v>2308.534640599115</v>
@@ -7132,7 +7132,7 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X37" t="n">
         <v>1078.368240805025</v>
@@ -7166,10 +7166,10 @@
         <v>330.9902774691668</v>
       </c>
       <c r="H38" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J38" t="n">
         <v>435.7296580773208</v>
@@ -7181,25 +7181,25 @@
         <v>1215.192452310654</v>
       </c>
       <c r="M38" t="n">
-        <v>2190.421566838098</v>
+        <v>1745.403168680194</v>
       </c>
       <c r="N38" t="n">
-        <v>2791.538239201504</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O38" t="n">
-        <v>3291.323860704329</v>
+        <v>2972.743139614561</v>
       </c>
       <c r="P38" t="n">
-        <v>3683.378324849021</v>
+        <v>3683.37832484902</v>
       </c>
       <c r="Q38" t="n">
         <v>3929.622153316232</v>
       </c>
       <c r="R38" t="n">
-        <v>4052.510349175958</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S38" t="n">
-        <v>3989.621088650775</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T38" t="n">
         <v>3831.400031656367</v>
@@ -7208,13 +7208,13 @@
         <v>3625.709180222406</v>
       </c>
       <c r="V38" t="n">
-        <v>3342.487462039256</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W38" t="n">
         <v>3037.559975929561</v>
       </c>
       <c r="X38" t="n">
-        <v>2711.935386828902</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y38" t="n">
         <v>2369.63722401351</v>
@@ -7245,10 +7245,10 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H39" t="n">
-        <v>90.18497731138318</v>
+        <v>90.18497731138316</v>
       </c>
       <c r="I39" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J39" t="n">
         <v>173.7713535874908</v>
@@ -7269,7 +7269,7 @@
         <v>2099.058792240565</v>
       </c>
       <c r="P39" t="n">
-        <v>2413.56915540315</v>
+        <v>2407.625897841417</v>
       </c>
       <c r="Q39" t="n">
         <v>2569.91889741942</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.6095351520958</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C40" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846088</v>
       </c>
       <c r="D40" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326931</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1671267107203</v>
+        <v>448.1671267107201</v>
       </c>
       <c r="F40" t="n">
-        <v>349.11834837323</v>
+        <v>349.1183483732299</v>
       </c>
       <c r="G40" t="n">
-        <v>229.2480243317066</v>
+        <v>229.2480243317065</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I40" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.4621285519492</v>
+        <v>172.4621285519491</v>
       </c>
       <c r="K40" t="n">
-        <v>422.3527187417124</v>
+        <v>422.3527187417122</v>
       </c>
       <c r="L40" t="n">
-        <v>784.5402614606194</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M40" t="n">
         <v>1174.256482673401</v>
@@ -7345,13 +7345,13 @@
         <v>1561.255658332705</v>
       </c>
       <c r="O40" t="n">
-        <v>1906.275168382568</v>
+        <v>1906.275168382567</v>
       </c>
       <c r="P40" t="n">
-        <v>2184.745659885729</v>
+        <v>2184.745659885728</v>
       </c>
       <c r="Q40" t="n">
-        <v>2308.534640599116</v>
+        <v>2308.534640599115</v>
       </c>
       <c r="R40" t="n">
         <v>2266.156121351858</v>
@@ -7369,13 +7369,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W40" t="n">
-        <v>1258.516622542623</v>
+        <v>1258.516622542622</v>
       </c>
       <c r="X40" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y40" t="n">
-        <v>905.4168308219154</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1709.757205329817</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.332675883487</v>
+        <v>1399.332675883486</v>
       </c>
       <c r="E41" t="n">
         <v>1061.385592445662</v>
       </c>
       <c r="F41" t="n">
-        <v>698.2408568164751</v>
+        <v>698.2408568164748</v>
       </c>
       <c r="G41" t="n">
         <v>330.9902774691668</v>
@@ -7412,22 +7412,22 @@
         <v>268.3240090569677</v>
       </c>
       <c r="K41" t="n">
-        <v>599.7374108859185</v>
+        <v>806.1609358012921</v>
       </c>
       <c r="L41" t="n">
-        <v>1405.990710598631</v>
+        <v>1254.210328205675</v>
       </c>
       <c r="M41" t="n">
-        <v>1936.20142696817</v>
+        <v>1784.421044575214</v>
       </c>
       <c r="N41" t="n">
-        <v>2479.60531542564</v>
+        <v>2327.824933032683</v>
       </c>
       <c r="O41" t="n">
-        <v>3356.383116378582</v>
+        <v>2827.610554535509</v>
       </c>
       <c r="P41" t="n">
-        <v>3748.437580523273</v>
+        <v>3538.245739769968</v>
       </c>
       <c r="Q41" t="n">
         <v>3994.681408990485</v>
@@ -7494,13 +7494,13 @@
         <v>410.4013862655476</v>
       </c>
       <c r="L42" t="n">
-        <v>774.9022083161361</v>
+        <v>780.8454658778693</v>
       </c>
       <c r="M42" t="n">
-        <v>1219.614343428359</v>
+        <v>1225.557600990092</v>
       </c>
       <c r="N42" t="n">
-        <v>1690.505330390491</v>
+        <v>1696.448587952224</v>
       </c>
       <c r="O42" t="n">
         <v>2105.002049802299</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.6095351520958</v>
+        <v>771.6095351520953</v>
       </c>
       <c r="C43" t="n">
-        <v>650.514521384609</v>
+        <v>650.5145213846085</v>
       </c>
       <c r="D43" t="n">
-        <v>548.2390511326934</v>
+        <v>548.2390511326929</v>
       </c>
       <c r="E43" t="n">
-        <v>448.1671267107204</v>
+        <v>448.1671267107199</v>
       </c>
       <c r="F43" t="n">
-        <v>349.1183483732301</v>
+        <v>349.1183483732297</v>
       </c>
       <c r="G43" t="n">
-        <v>229.2480243317067</v>
+        <v>229.2480243317062</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738395</v>
       </c>
       <c r="I43" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.4621285519487</v>
+        <v>172.4621285519489</v>
       </c>
       <c r="K43" t="n">
-        <v>422.352718741712</v>
+        <v>422.3527187417121</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5402614606189</v>
+        <v>784.540261460619</v>
       </c>
       <c r="M43" t="n">
         <v>1174.256482673401</v>
@@ -7612,7 +7612,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.4168308219154</v>
+        <v>905.4168308219149</v>
       </c>
     </row>
     <row r="44">
@@ -7649,19 +7649,19 @@
         <v>435.7296580773208</v>
       </c>
       <c r="K44" t="n">
-        <v>767.1430599062714</v>
+        <v>1059.682401216807</v>
       </c>
       <c r="L44" t="n">
-        <v>1215.192452310654</v>
+        <v>1507.731793621189</v>
       </c>
       <c r="M44" t="n">
-        <v>1745.403168680194</v>
+        <v>2037.942509990729</v>
       </c>
       <c r="N44" t="n">
-        <v>2288.807057137663</v>
+        <v>2581.346398448198</v>
       </c>
       <c r="O44" t="n">
-        <v>2788.592678640488</v>
+        <v>3081.132019951023</v>
       </c>
       <c r="P44" t="n">
         <v>3473.186484095715</v>
@@ -7746,7 +7746,7 @@
         <v>2407.625897841417</v>
       </c>
       <c r="Q45" t="n">
-        <v>2563.975639857687</v>
+        <v>2569.91889741942</v>
       </c>
       <c r="R45" t="n">
         <v>2569.91889741942</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.6095351520958</v>
+        <v>771.6095351520953</v>
       </c>
       <c r="C46" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846085</v>
       </c>
       <c r="D46" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326929</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1671267107203</v>
+        <v>448.1671267107199</v>
       </c>
       <c r="F46" t="n">
-        <v>349.11834837323</v>
+        <v>349.1183483732297</v>
       </c>
       <c r="G46" t="n">
-        <v>229.2480243317066</v>
+        <v>229.2480243317062</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738395</v>
       </c>
       <c r="I46" t="n">
         <v>81.05020698351916</v>
@@ -7807,16 +7807,16 @@
         <v>172.4621285519489</v>
       </c>
       <c r="K46" t="n">
-        <v>422.3527187417118</v>
+        <v>422.3527187417121</v>
       </c>
       <c r="L46" t="n">
-        <v>784.5402614606188</v>
+        <v>784.540261460619</v>
       </c>
       <c r="M46" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N46" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O46" t="n">
         <v>1906.275168382567</v>
@@ -7831,16 +7831,16 @@
         <v>2266.156121351858</v>
       </c>
       <c r="S46" t="n">
-        <v>2122.160545816723</v>
+        <v>2122.160545816722</v>
       </c>
       <c r="T46" t="n">
-        <v>1948.198112355475</v>
+        <v>1948.198112355474</v>
       </c>
       <c r="U46" t="n">
-        <v>1706.93594246463</v>
+        <v>1706.935942464629</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.092623419163</v>
+        <v>1500.092623419162</v>
       </c>
       <c r="W46" t="n">
         <v>1258.516622542622</v>
@@ -7849,7 +7849,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.4168308219154</v>
+        <v>905.4168308219149</v>
       </c>
     </row>
   </sheetData>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.003290466397104</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6.003290466397175</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>246.0671288632146</v>
+        <v>246.0671288632141</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.003290466396805</v>
       </c>
       <c r="R15" t="n">
-        <v>6.780878000933895</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>136.5834113516363</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>246.0671288632141</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.003290466396805</v>
       </c>
       <c r="R18" t="n">
-        <v>6.780878000933895</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.003290466396265</v>
+        <v>6.003290466396805</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7775875345369627</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>295.4942841520559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>58.29574131912889</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>6.003290466397402</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.780878000934354</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>295.4942841520564</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.0234204227888</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>6.003290466397175</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.780878000934354</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>295.4942841520564</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>37.06529145387418</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,13 +10194,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>6.003290466397175</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>295.4942841520564</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.46235039997694</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10431,13 +10431,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>6.003290466397175</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>295.4942841520559</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>39.41199585355655</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.003290466397118</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>6.003290466397175</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10829,16 +10829,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>58.29574131912898</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>186.0105666404781</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>6.003290466397402</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.00329046639726</v>
       </c>
       <c r="R39" t="n">
         <v>0.7775875345369911</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>208.5086110256299</v>
       </c>
       <c r="L41" t="n">
-        <v>361.8221285942726</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.003290466397175</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>6.003290466397175</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>295.4942841520559</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>295.494284152056</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.00329046639726</v>
       </c>
       <c r="R45" t="n">
-        <v>6.780878000934354</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>17.57093232122891</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>55.83628312200196</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.803427249607</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.31348951888496</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0343782699241</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8312101021039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.61014401023337</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.31749152360084</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>161.7185296032992</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>149.9895242937551</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>56.35228983229763</v>
+        <v>60.81049873975956</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.37762469798514</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>100.1073672593918</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0343782699241</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.8312101021039</v>
       </c>
       <c r="I16" t="n">
-        <v>96.61014401023334</v>
+        <v>96.61014401023337</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.31749152360081</v>
+        <v>89.31749152360084</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>48.44355489859479</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>48.44355489859456</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>48.44355489859455</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>48.44355489859399</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26332,7 +26332,7 @@
         <v>245155.6988683066</v>
       </c>
       <c r="I2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="J2" t="n">
         <v>246312.530959285</v>
@@ -26375,16 +26375,16 @@
         <v>1118211.027744078</v>
       </c>
       <c r="F3" t="n">
-        <v>50161.28839520992</v>
+        <v>50161.28839520986</v>
       </c>
       <c r="G3" t="n">
-        <v>37890.20597505266</v>
+        <v>37890.20597505269</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3319.459534680727</v>
+        <v>3319.459534680787</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37890.20597505268</v>
+        <v>37890.2059750527</v>
       </c>
       <c r="M3" t="n">
-        <v>205737.2315485645</v>
+        <v>205737.2315485644</v>
       </c>
       <c r="N3" t="n">
-        <v>42878.67028742094</v>
+        <v>42878.67028742089</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>8779.807816620571</v>
       </c>
       <c r="F4" t="n">
-        <v>26795.53396675471</v>
+        <v>26795.53396675469</v>
       </c>
       <c r="G4" t="n">
-        <v>74428.36230238128</v>
+        <v>74428.3623023813</v>
       </c>
       <c r="H4" t="n">
         <v>74428.36230238128</v>
       </c>
       <c r="I4" t="n">
+        <v>75712.94441204515</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75712.94441204512</v>
+      </c>
+      <c r="K4" t="n">
         <v>75712.94441204514</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75712.94441204515</v>
-      </c>
-      <c r="K4" t="n">
-        <v>75712.94441204515</v>
       </c>
       <c r="L4" t="n">
         <v>75712.94441204515</v>
@@ -26451,13 +26451,13 @@
         <v>75712.94441204515</v>
       </c>
       <c r="N4" t="n">
-        <v>75712.94441204517</v>
+        <v>75712.94441204515</v>
       </c>
       <c r="O4" t="n">
-        <v>75712.94441204521</v>
+        <v>75712.94441204515</v>
       </c>
       <c r="P4" t="n">
-        <v>75712.94441204515</v>
+        <v>75712.94441204512</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>73848.64439395539</v>
       </c>
       <c r="F5" t="n">
-        <v>84492.72672654917</v>
+        <v>84492.72672654915</v>
       </c>
       <c r="G5" t="n">
         <v>88474.46638419504</v>
       </c>
       <c r="H5" t="n">
-        <v>88474.46638419505</v>
+        <v>88474.46638419504</v>
       </c>
       <c r="I5" t="n">
-        <v>89233.42539724248</v>
+        <v>89233.42539724249</v>
       </c>
       <c r="J5" t="n">
-        <v>89233.42539724248</v>
+        <v>89233.42539724249</v>
       </c>
       <c r="K5" t="n">
         <v>89233.42539724249</v>
@@ -26500,10 +26500,10 @@
         <v>89233.42539724249</v>
       </c>
       <c r="M5" t="n">
-        <v>89233.42539724249</v>
+        <v>89233.42539724248</v>
       </c>
       <c r="N5" t="n">
-        <v>89233.42539724249</v>
+        <v>89233.42539724248</v>
       </c>
       <c r="O5" t="n">
         <v>89233.42539724249</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202617.0969978475</v>
+        <v>-202621.5105757156</v>
       </c>
       <c r="C6" t="n">
-        <v>-202617.0969978475</v>
+        <v>-202621.5105757155</v>
       </c>
       <c r="D6" t="n">
-        <v>-202617.0969978474</v>
+        <v>-202621.5105757155</v>
       </c>
       <c r="E6" t="n">
-        <v>-996882.6253318182</v>
+        <v>-997235.5893012886</v>
       </c>
       <c r="F6" t="n">
-        <v>58731.39116961691</v>
+        <v>58513.62791377406</v>
       </c>
       <c r="G6" t="n">
-        <v>44362.6642066776</v>
+        <v>44353.02393925269</v>
       </c>
       <c r="H6" t="n">
-        <v>82252.87018173025</v>
+        <v>82243.22991430547</v>
       </c>
       <c r="I6" t="n">
-        <v>78046.70161531668</v>
+        <v>78046.70161531649</v>
       </c>
       <c r="J6" t="n">
-        <v>81366.16114999735</v>
+        <v>81366.16114999737</v>
       </c>
       <c r="K6" t="n">
-        <v>81366.1611499974</v>
+        <v>81366.16114999731</v>
       </c>
       <c r="L6" t="n">
-        <v>43475.95517494467</v>
+        <v>43475.95517494461</v>
       </c>
       <c r="M6" t="n">
         <v>-124371.0703985671</v>
       </c>
       <c r="N6" t="n">
-        <v>38487.49086257638</v>
+        <v>38487.49086257649</v>
       </c>
       <c r="O6" t="n">
-        <v>81366.16114999728</v>
+        <v>81366.1611499974</v>
       </c>
       <c r="P6" t="n">
         <v>81366.16114999741</v>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>47.36275746881586</v>
       </c>
       <c r="H2" t="n">
+        <v>47.36275746881586</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47.36275746881586</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47.36275746881585</v>
+      </c>
+      <c r="K2" t="n">
+        <v>47.36275746881586</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47.36275746881587</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.36275746881589</v>
+      </c>
+      <c r="N2" t="n">
+        <v>47.3627574688159</v>
+      </c>
+      <c r="O2" t="n">
+        <v>47.36275746881589</v>
+      </c>
+      <c r="P2" t="n">
         <v>47.36275746881588</v>
-      </c>
-      <c r="I2" t="n">
-        <v>47.36275746881589</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.36275746881589</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.36275746881588</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.3627574688159</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.36275746881588</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.36275746881587</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.36275746881591</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>1085.024240005598</v>
       </c>
       <c r="H3" t="n">
-        <v>1085.024240005599</v>
+        <v>1085.024240005598</v>
       </c>
       <c r="I3" t="n">
         <v>1085.024240005598</v>
@@ -26808,10 +26808,10 @@
         <v>1000.64470878992</v>
       </c>
       <c r="I4" t="n">
-        <v>1013.127587293989</v>
+        <v>1013.12758729399</v>
       </c>
       <c r="J4" t="n">
-        <v>1013.127587293989</v>
+        <v>1013.12758729399</v>
       </c>
       <c r="K4" t="n">
         <v>1013.12758729399</v>
@@ -26820,10 +26820,10 @@
         <v>1013.12758729399</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="N4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="O4" t="n">
         <v>1013.12758729399</v>
@@ -26917,13 +26917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.36275746881583</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881585</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>825.5775651617328</v>
       </c>
       <c r="F4" t="n">
-        <v>175.067143628187</v>
+        <v>175.0671436281868</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.48287850406973</v>
+        <v>12.48287850406996</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>825.5775651617328</v>
+        <v>825.5775651617327</v>
       </c>
       <c r="N4" t="n">
-        <v>175.067143628187</v>
+        <v>175.0671436281867</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881583</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>825.5775651617328</v>
       </c>
       <c r="N4" t="n">
-        <v>175.067143628187</v>
+        <v>175.0671436281868</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="D20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="E20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="F20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="G20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="H20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="I20" t="n">
-        <v>42.31348951888492</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="T20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="U20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="V20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="W20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="X20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="C22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="D22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="E22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="F22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="G22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="H22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="I22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="J22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881626</v>
       </c>
       <c r="K22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="L22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="M22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="N22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="O22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="P22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="R22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="S22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="T22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="U22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="V22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="W22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="X22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="C23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="D23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="E23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="F23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="G23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="H23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="I23" t="n">
         <v>42.31348951888495</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="T23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="U23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="V23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="W23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="X23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="C25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="D25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="E25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="F25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="G25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="H25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="I25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="J25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="L25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="M25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="N25" t="n">
-        <v>47.3627574688162</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="O25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="P25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="R25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="S25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="T25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="U25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="V25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="W25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="X25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881586</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="C26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="D26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="E26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="F26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="G26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="H26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="I26" t="n">
         <v>42.31348951888495</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="T26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="U26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="V26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="W26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="X26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="C28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="D28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="E28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="F28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="G28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="H28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="I28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="J28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="K28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="L28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="M28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="N28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="O28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="P28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="R28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="S28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="T28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="U28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="V28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="W28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="X28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881585</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="C29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="D29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="E29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="F29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="G29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="H29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="I29" t="n">
         <v>42.31348951888495</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="T29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="U29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="V29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="W29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="X29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="C31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="D31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="E31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="F31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="G31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="H31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="I31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="J31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="K31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="L31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="M31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="N31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="O31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="P31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="R31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="S31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="T31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="U31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="V31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="W31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="X31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881586</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I32" t="n">
         <v>42.31348951888495</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="J34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="K34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="L34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="M34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="N34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="O34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="P34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="R34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="S34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I35" t="n">
         <v>42.31348951888495</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I38" t="n">
         <v>42.31348951888495</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="J40" t="n">
-        <v>47.36275746881606</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="K40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="L40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="M40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="N40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="O40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881563</v>
       </c>
       <c r="P40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="R40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="S40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.36275746881587</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I41" t="n">
         <v>42.31348951888495</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="C44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="D44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="E44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="F44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="G44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="H44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="I44" t="n">
         <v>42.31348951888495</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="T44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="U44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="V44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="W44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="X44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="C46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="D46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="E46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="F46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="G46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="H46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="I46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="J46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="L46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="M46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="N46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="O46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="P46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="R46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="S46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="T46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="U46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="V46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="W46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="X46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881588</v>
       </c>
     </row>
   </sheetData>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.361906492484815</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H20" t="n">
-        <v>44.67137486616012</v>
+        <v>44.67137486616011</v>
       </c>
       <c r="I20" t="n">
         <v>168.162400051521</v>
       </c>
       <c r="J20" t="n">
-        <v>370.2113611665334</v>
+        <v>370.2113611665333</v>
       </c>
       <c r="K20" t="n">
-        <v>554.8508629934157</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L20" t="n">
-        <v>688.3415588127981</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M20" t="n">
-        <v>765.9126133985249</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N20" t="n">
-        <v>778.3058802202974</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O20" t="n">
-        <v>734.9321725356515</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P20" t="n">
-        <v>627.2476060024325</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.0368297403199</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R20" t="n">
         <v>273.9986087085495</v>
       </c>
       <c r="S20" t="n">
-        <v>99.39694419749783</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T20" t="n">
-        <v>19.09424567085229</v>
+        <v>19.09424567085228</v>
       </c>
       <c r="U20" t="n">
         <v>0.3489525193987851</v>
@@ -32543,34 +32543,34 @@
         <v>2.333825723785627</v>
       </c>
       <c r="H21" t="n">
-        <v>22.53984317445593</v>
+        <v>22.53984317445592</v>
       </c>
       <c r="I21" t="n">
-        <v>80.35321022682972</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J21" t="n">
         <v>220.4953505090623</v>
       </c>
       <c r="K21" t="n">
-        <v>376.8616740026993</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L21" t="n">
-        <v>506.7370283158223</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M21" t="n">
-        <v>591.3382108030512</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N21" t="n">
-        <v>606.9891736612452</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O21" t="n">
-        <v>555.276508939469</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P21" t="n">
-        <v>445.6583524656958</v>
+        <v>445.6583524656957</v>
       </c>
       <c r="Q21" t="n">
-        <v>297.9108064256882</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R21" t="n">
         <v>144.901916429427</v>
@@ -32579,10 +32579,10 @@
         <v>43.3497892115444</v>
       </c>
       <c r="T21" t="n">
-        <v>9.406955439293819</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1535411660385282</v>
+        <v>0.1535411660385281</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,25 +32619,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.956601088534686</v>
+        <v>1.956601088534685</v>
       </c>
       <c r="H22" t="n">
         <v>17.39596240533567</v>
       </c>
       <c r="I22" t="n">
-        <v>58.84033091702493</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J22" t="n">
         <v>138.3316969594023</v>
       </c>
       <c r="K22" t="n">
-        <v>227.3214719224844</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L22" t="n">
         <v>290.8932200172387</v>
       </c>
       <c r="M22" t="n">
-        <v>306.7061142691235</v>
+        <v>306.7061142691234</v>
       </c>
       <c r="N22" t="n">
         <v>299.4133283936762</v>
@@ -32649,16 +32649,16 @@
         <v>236.6420080169586</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.8386602408454</v>
+        <v>163.8386602408453</v>
       </c>
       <c r="R22" t="n">
-        <v>87.97589985356866</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S22" t="n">
-        <v>34.09822078837265</v>
+        <v>34.09822078837264</v>
       </c>
       <c r="T22" t="n">
-        <v>8.360022832830019</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U22" t="n">
         <v>0.1067236957382557</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.65772384239557</v>
+        <v>99.66101430879267</v>
       </c>
       <c r="K12" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L12" t="n">
-        <v>374.1859390023452</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M12" t="n">
         <v>449.2041768810328</v>
@@ -35662,7 +35662,7 @@
         <v>504.8339611139645</v>
       </c>
       <c r="P14" t="n">
-        <v>642.0817391103774</v>
+        <v>642.0817391103769</v>
       </c>
       <c r="Q14" t="n">
         <v>461.046130525775</v>
@@ -35744,10 +35744,10 @@
         <v>311.6839450513655</v>
       </c>
       <c r="Q15" t="n">
-        <v>157.9290323396666</v>
+        <v>163.9323228060634</v>
       </c>
       <c r="R15" t="n">
-        <v>6.003290466396904</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.9725168427295</v>
+        <v>44.97251684272948</v>
       </c>
       <c r="K16" t="n">
         <v>205.0519800966015</v>
@@ -35817,7 +35817,7 @@
         <v>343.5455007729048</v>
       </c>
       <c r="O16" t="n">
-        <v>301.1417981371061</v>
+        <v>301.141798137106</v>
       </c>
       <c r="P16" t="n">
         <v>233.9205672818521</v>
@@ -35884,7 +35884,7 @@
         <v>358.2620718119208</v>
       </c>
       <c r="K17" t="n">
-        <v>471.3444233000714</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L17" t="n">
         <v>452.5751438428106</v>
@@ -35899,10 +35899,10 @@
         <v>504.8339611139645</v>
       </c>
       <c r="P17" t="n">
-        <v>717.8133184186454</v>
+        <v>642.0817391103769</v>
       </c>
       <c r="Q17" t="n">
-        <v>248.7311398658703</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R17" t="n">
         <v>124.1294907673998</v>
@@ -35981,10 +35981,10 @@
         <v>311.6839450513655</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.9290323396666</v>
+        <v>163.9323228060634</v>
       </c>
       <c r="R18" t="n">
-        <v>6.003290466396904</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>348.2469123766344</v>
+        <v>348.2469123766343</v>
       </c>
       <c r="K20" t="n">
-        <v>334.7610119484352</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L20" t="n">
-        <v>452.5751438428109</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M20" t="n">
-        <v>535.5663801712521</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N20" t="n">
-        <v>548.8928166237065</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O20" t="n">
-        <v>504.8339611139647</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P20" t="n">
-        <v>717.8133184186456</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.0461305257751</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R20" t="n">
-        <v>58.41307089441739</v>
+        <v>58.41307089441733</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.6577238423956</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K21" t="n">
-        <v>239.0202350283403</v>
+        <v>239.0202350283402</v>
       </c>
       <c r="L21" t="n">
-        <v>368.1826485359481</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M21" t="n">
-        <v>449.2041768810329</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N21" t="n">
-        <v>475.6474615779119</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O21" t="n">
-        <v>412.6802644950245</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6839450513656</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q21" t="n">
-        <v>163.9323228060629</v>
+        <v>163.9323228060634</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33527431154539</v>
+        <v>92.33527431154573</v>
       </c>
       <c r="K22" t="n">
-        <v>252.4147375654174</v>
+        <v>252.4147375654173</v>
       </c>
       <c r="L22" t="n">
         <v>365.8460027463707</v>
@@ -36291,13 +36291,13 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O22" t="n">
-        <v>348.504555605922</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P22" t="n">
-        <v>281.283324750668</v>
+        <v>281.2833247506679</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>358.2620718119208</v>
       </c>
       <c r="K23" t="n">
-        <v>630.2552961004909</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L23" t="n">
         <v>452.5751438428106</v>
       </c>
       <c r="M23" t="n">
-        <v>535.566380171252</v>
+        <v>985.0799136640845</v>
       </c>
       <c r="N23" t="n">
         <v>548.8928166237063</v>
@@ -36376,7 +36376,7 @@
         <v>396.0146102471628</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.046130525775</v>
+        <v>307.0268811849992</v>
       </c>
       <c r="R23" t="n">
         <v>124.1294907673998</v>
@@ -36452,13 +36452,13 @@
         <v>412.6802644950244</v>
       </c>
       <c r="P24" t="n">
-        <v>311.6839450513655</v>
+        <v>317.6872355177629</v>
       </c>
       <c r="Q24" t="n">
         <v>157.9290323396666</v>
       </c>
       <c r="R24" t="n">
-        <v>6.003290466397363</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154533</v>
       </c>
       <c r="K25" t="n">
         <v>252.4147375654173</v>
@@ -36525,10 +36525,10 @@
         <v>393.6527486997799</v>
       </c>
       <c r="N25" t="n">
-        <v>390.908258241721</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O25" t="n">
-        <v>348.504555605922</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P25" t="n">
         <v>281.2833247506679</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K26" t="n">
         <v>334.7610119484351</v>
@@ -36607,16 +36607,16 @@
         <v>548.8928166237063</v>
       </c>
       <c r="O26" t="n">
-        <v>885.6341423767099</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P26" t="n">
-        <v>717.8133184186454</v>
+        <v>691.5088943992192</v>
       </c>
       <c r="Q26" t="n">
-        <v>288.7545602886591</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R26" t="n">
-        <v>58.41307089441733</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>475.6474615779118</v>
       </c>
       <c r="O27" t="n">
-        <v>412.6802644950244</v>
+        <v>418.6835549614216</v>
       </c>
       <c r="P27" t="n">
         <v>311.6839450513655</v>
@@ -36695,7 +36695,7 @@
         <v>157.9290323396666</v>
       </c>
       <c r="R27" t="n">
-        <v>6.003290466397363</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154533</v>
       </c>
       <c r="K28" t="n">
         <v>252.4147375654173</v>
@@ -36765,7 +36765,7 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O28" t="n">
-        <v>348.504555605922</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P28" t="n">
         <v>281.2833247506679</v>
@@ -36832,10 +36832,10 @@
         <v>358.2620718119208</v>
       </c>
       <c r="K29" t="n">
-        <v>658.9064245195998</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L29" t="n">
-        <v>452.5751438428106</v>
+        <v>748.0694279948671</v>
       </c>
       <c r="M29" t="n">
         <v>535.566380171252</v>
@@ -36847,13 +36847,13 @@
         <v>504.8339611139645</v>
       </c>
       <c r="P29" t="n">
-        <v>433.079901701037</v>
+        <v>396.0146102471628</v>
       </c>
       <c r="Q29" t="n">
         <v>461.046130525775</v>
       </c>
       <c r="R29" t="n">
-        <v>58.41307089441733</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>239.0202350283402</v>
       </c>
       <c r="L30" t="n">
-        <v>374.1859390023452</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M30" t="n">
         <v>449.2041768810328</v>
       </c>
       <c r="N30" t="n">
-        <v>475.6474615779118</v>
+        <v>481.650752044309</v>
       </c>
       <c r="O30" t="n">
         <v>412.6802644950244</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154533</v>
       </c>
       <c r="K31" t="n">
         <v>252.4147375654173</v>
@@ -37002,7 +37002,7 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O31" t="n">
-        <v>348.504555605922</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P31" t="n">
         <v>281.2833247506679</v>
@@ -37078,16 +37078,16 @@
         <v>535.566380171252</v>
       </c>
       <c r="N32" t="n">
-        <v>986.2397410356905</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O32" t="n">
         <v>504.8339611139645</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0146102471628</v>
+        <v>691.5088943992192</v>
       </c>
       <c r="Q32" t="n">
-        <v>319.1934902658473</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R32" t="n">
         <v>124.1294907673998</v>
@@ -37151,13 +37151,13 @@
         <v>239.0202350283402</v>
       </c>
       <c r="L33" t="n">
-        <v>374.1859390023452</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M33" t="n">
         <v>449.2041768810328</v>
       </c>
       <c r="N33" t="n">
-        <v>475.6474615779118</v>
+        <v>481.650752044309</v>
       </c>
       <c r="O33" t="n">
         <v>412.6802644950244</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.33527431154538</v>
+        <v>92.33527431154535</v>
       </c>
       <c r="K34" t="n">
         <v>252.4147375654173</v>
@@ -37239,13 +37239,13 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O34" t="n">
-        <v>348.504555605922</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P34" t="n">
-        <v>281.283324750668</v>
+        <v>281.2833247506679</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>358.2620718119208</v>
       </c>
       <c r="K35" t="n">
-        <v>334.7610119484351</v>
+        <v>630.2552961004909</v>
       </c>
       <c r="L35" t="n">
         <v>452.5751438428106</v>
@@ -37321,13 +37321,13 @@
         <v>504.8339611139645</v>
       </c>
       <c r="P35" t="n">
-        <v>717.8133184186454</v>
+        <v>396.0146102471628</v>
       </c>
       <c r="Q35" t="n">
         <v>461.046130525775</v>
       </c>
       <c r="R35" t="n">
-        <v>97.82506674797388</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>93.65772384239557</v>
       </c>
       <c r="K36" t="n">
-        <v>239.0202350283402</v>
+        <v>245.0235254947373</v>
       </c>
       <c r="L36" t="n">
         <v>368.182648535948</v>
@@ -37394,7 +37394,7 @@
         <v>449.2041768810328</v>
       </c>
       <c r="N36" t="n">
-        <v>481.650752044309</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O36" t="n">
         <v>412.6802644950244</v>
@@ -37549,16 +37549,16 @@
         <v>452.5751438428106</v>
       </c>
       <c r="M38" t="n">
-        <v>985.0799136640845</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N38" t="n">
-        <v>607.1885579428352</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O38" t="n">
-        <v>504.8339611139645</v>
+        <v>690.8445277544427</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0146102471628</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q38" t="n">
         <v>248.7311398658703</v>
@@ -37637,10 +37637,10 @@
         <v>412.6802644950244</v>
       </c>
       <c r="P39" t="n">
-        <v>317.6872355177629</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q39" t="n">
-        <v>157.9290323396666</v>
+        <v>163.9323228060639</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.33527431154553</v>
+        <v>92.33527431154538</v>
       </c>
       <c r="K40" t="n">
         <v>252.4147375654173</v>
@@ -37713,13 +37713,13 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O40" t="n">
-        <v>348.5045556059219</v>
+        <v>348.5045556059217</v>
       </c>
       <c r="P40" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>189.165456639847</v>
       </c>
       <c r="K41" t="n">
-        <v>334.7610119484351</v>
+        <v>543.269622974065</v>
       </c>
       <c r="L41" t="n">
-        <v>814.3972724370832</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M41" t="n">
         <v>535.566380171252</v>
@@ -37792,13 +37792,13 @@
         <v>548.8928166237063</v>
       </c>
       <c r="O41" t="n">
-        <v>885.6341423767099</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P41" t="n">
-        <v>396.0146102471628</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q41" t="n">
-        <v>248.7311398658703</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R41" t="n">
         <v>58.41307089441733</v>
@@ -37862,7 +37862,7 @@
         <v>239.0202350283402</v>
       </c>
       <c r="L42" t="n">
-        <v>368.182648535948</v>
+        <v>374.1859390023452</v>
       </c>
       <c r="M42" t="n">
         <v>449.2041768810328</v>
@@ -37871,7 +37871,7 @@
         <v>475.6474615779118</v>
       </c>
       <c r="O42" t="n">
-        <v>418.6835549614216</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P42" t="n">
         <v>311.6839450513655</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.33527431154539</v>
+        <v>92.33527431154536</v>
       </c>
       <c r="K43" t="n">
-        <v>252.4147375654174</v>
+        <v>252.4147375654173</v>
       </c>
       <c r="L43" t="n">
         <v>365.8460027463707</v>
@@ -37953,10 +37953,10 @@
         <v>348.504555605922</v>
       </c>
       <c r="P43" t="n">
-        <v>281.283324750668</v>
+        <v>281.2833247506679</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>358.2620718119208</v>
       </c>
       <c r="K44" t="n">
-        <v>334.7610119484351</v>
+        <v>630.2552961004909</v>
       </c>
       <c r="L44" t="n">
         <v>452.5751438428106</v>
@@ -38032,7 +38032,7 @@
         <v>504.8339611139645</v>
       </c>
       <c r="P44" t="n">
-        <v>691.5088943992188</v>
+        <v>396.0146102471628</v>
       </c>
       <c r="Q44" t="n">
         <v>461.046130525775</v>
@@ -38114,10 +38114,10 @@
         <v>311.6839450513655</v>
       </c>
       <c r="Q45" t="n">
-        <v>157.9290323396666</v>
+        <v>163.9323228060639</v>
       </c>
       <c r="R45" t="n">
-        <v>6.003290466397363</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O46" t="n">
-        <v>348.504555605922</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P46" t="n">
-        <v>281.283324750668</v>
+        <v>281.2833247506679</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
